--- a/Confirmação de Reserva/Confirmação de reserva.xlsx
+++ b/Confirmação de Reserva/Confirmação de reserva.xlsx
@@ -19185,8 +19185,8 @@
   </sheetPr>
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A7" zoomScale="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>

--- a/Confirmação de Reserva/Confirmação de reserva.xlsx
+++ b/Confirmação de Reserva/Confirmação de reserva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DTI DIGITAL\Desktop\DTI Digital\roteirosDeTeste\Confirmação de Reserva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E86BB59-0490-4F0B-87D8-1AFD33037F91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EF6DDB-659D-42D3-A145-7BDAE12240D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,14 @@
     <sheet name="Qualidade" sheetId="6" r:id="rId6"/>
     <sheet name="Util" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="147">
   <si>
     <t>CHECKLIST FLOW</t>
   </si>
@@ -157,9 +163,6 @@
   </si>
   <si>
     <t>Abri a loja clicada ou uma página caso o link clicado não corresponda a loja do dispositivo em questão.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escolher um </t>
   </si>
   <si>
     <t>2.1</t>
@@ -452,6 +455,33 @@
   </si>
   <si>
     <t>Deverá abrir o modal de termos e condições</t>
+  </si>
+  <si>
+    <t>Componente Sua reserva</t>
+  </si>
+  <si>
+    <t>Mostrar informações da diária</t>
+  </si>
+  <si>
+    <t>Exibir o valor e a qtd de diárias alugadas e o valor total. Caso houver desconto, exibir o valor normal da diária tachado e o valor com desconto logo abaixo. As diárias com hora extra, devem aparecer logo abaixo da informação das diárias, e exibir uma msg abaixo da taxa de aluguel em verde e em negrito.</t>
+  </si>
+  <si>
+    <t>Mostrar informações de adicionais</t>
+  </si>
+  <si>
+    <t>Caso a reserva tenha algum adicional, irá mostrar a seção com todos os adicionais escolhidos e seus devidos valores. Caso houver tava de retorno, outros valores e taxa de serviço, ambos devem ser mostradas nessas seção.</t>
+  </si>
+  <si>
+    <t>Bloco upgrade</t>
+  </si>
+  <si>
+    <t>Caso a reserva tenha alguma upgrade, irá mostrar a seção upgrade com a mensagem ex.: "Upgrade Promocional do grupo C para o F"</t>
+  </si>
+  <si>
+    <t>Benefícios da reserva</t>
+  </si>
+  <si>
+    <t>Esse bloco é exibido quando o cliente teve desconto no valor das diárias com o texto  "Oba! Você recebeu um desconto exclusivo de X%"</t>
   </si>
 </sst>
 </file>
@@ -914,50 +944,6 @@
   </cellStyleXfs>
   <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1102,11 +1088,69 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1135,20 +1179,6 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1164,6 +1194,58 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
@@ -1190,6 +1272,32 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1216,6 +1324,58 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF99CC00"/>
         </patternFill>
       </fill>
@@ -1242,6 +1402,370 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC3924"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC3924"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC3924"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC3924"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
@@ -1268,6 +1792,32 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1294,6 +1844,32 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF99CC00"/>
         </patternFill>
       </fill>
@@ -1320,6 +1896,32 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFC3924"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF66"/>
         </patternFill>
       </fill>
@@ -1346,6 +1948,188 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFC3924"/>
         </patternFill>
       </fill>
@@ -1372,6 +2156,32 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF99CC00"/>
         </patternFill>
       </fill>
@@ -1398,6 +2208,32 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
@@ -1424,6 +2260,32 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1450,6 +2312,58 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC3924"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF99CC00"/>
         </patternFill>
       </fill>
@@ -1554,6 +2468,84 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF66"/>
         </patternFill>
       </fill>
@@ -1632,6 +2624,292 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC3924"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC3924"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC3924"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
@@ -1658,6 +2936,32 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1684,6 +2988,32 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF99CC00"/>
         </patternFill>
       </fill>
@@ -1710,6 +3040,110 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFC3924"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
@@ -1736,6 +3170,32 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1762,6 +3222,32 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF99CC00"/>
         </patternFill>
       </fill>
@@ -1788,6 +3274,32 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFC3924"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF66"/>
         </patternFill>
       </fill>
@@ -1814,6 +3326,344 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFC3924"/>
         </patternFill>
       </fill>
@@ -2334,6 +4184,58 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF99CC00"/>
         </patternFill>
       </fill>
@@ -2360,6 +4262,32 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2386,6 +4314,110 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC3924"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
@@ -2412,6 +4444,32 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF99CC00"/>
         </patternFill>
       </fill>
@@ -2438,6 +4496,32 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2464,58 +4548,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF99CC00"/>
         </patternFill>
       </fill>
@@ -2595,2008 +4627,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -11087,223 +11117,223 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" style="16" customWidth="1"/>
-    <col min="3" max="4" width="18.85546875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
-    <col min="6" max="18" width="9.140625" style="15" customWidth="1"/>
-    <col min="19" max="255" width="9.140625" style="16" customWidth="1"/>
-    <col min="256" max="256" width="22.5703125" style="16" customWidth="1"/>
-    <col min="257" max="1025" width="24.140625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="18.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="2" customWidth="1"/>
+    <col min="6" max="18" width="9.140625" style="1" customWidth="1"/>
+    <col min="19" max="255" width="9.140625" style="2" customWidth="1"/>
+    <col min="256" max="256" width="22.5703125" style="2" customWidth="1"/>
+    <col min="257" max="1025" width="24.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:18" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+    <row r="1" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
     </row>
-    <row r="4" spans="2:18" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="2:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+    <row r="9" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+    <row r="10" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
+      <c r="E11" s="7"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
+      <c r="E12" s="7"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
+      <c r="E13" s="7"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
+      <c r="E14" s="7"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
+      <c r="E15" s="7"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
+      <c r="E16" s="7"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
+      <c r="E17" s="7"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:E3"/>
@@ -11345,384 +11375,400 @@
   <dimension ref="A2:AMK25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="15" customWidth="1"/>
-    <col min="7" max="254" width="9.140625" style="15" customWidth="1"/>
-    <col min="255" max="1025" width="4" style="15" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="254" width="9.140625" style="1" customWidth="1"/>
+    <col min="255" max="1025" width="4" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="87.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="107.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="69.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="23" t="s">
+      <c r="B9" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="62"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="11">
         <v>2</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29" t="s">
+      <c r="B12" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F12" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29" t="s">
+      <c r="B13" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F13" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29" t="s">
+      <c r="B14" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29" t="s">
+      <c r="A15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29" t="s">
+      <c r="A16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29" t="s">
+      <c r="A17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="23" t="s">
+      <c r="B19" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="80" t="s">
+      <c r="E19" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="81"/>
+      <c r="F19" s="56"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="11">
         <v>2</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="27" t="s">
+      <c r="B22" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29" t="s">
+      <c r="C22" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F22" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="27" t="s">
+      <c r="B23" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29" t="s">
+      <c r="C23" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="82" t="s">
+      <c r="A24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29" t="s">
+      <c r="A25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -12891,227 +12937,227 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="28" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="cellIs" dxfId="43" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="29" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="cellIs" dxfId="42" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="30" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="cellIs" dxfId="41" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="31" operator="equal">
       <formula>"Concluído"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="32" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="33" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="34" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="35" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="36" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="37" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="38" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="39" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="40" operator="equal">
       <formula>"Concluído"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="cellIs" dxfId="31" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="41" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="42" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="cellIs" dxfId="29" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="43" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="44" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="cellIs" dxfId="27" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="45" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:F25">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="10" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:F25">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="11" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:F25">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="12" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:F25">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="13" operator="equal">
       <formula>"Concluído"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:F25">
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="14" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:F25">
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="15" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:F25">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="16" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:F25">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="17" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:F25">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="18" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="19" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="20" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="21" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="22" operator="equal">
       <formula>"Concluído"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="23" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="24" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="11" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="25" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="10" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="26" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="9" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="27" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="2" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="3" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="4" operator="equal">
       <formula>"Concluído"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="5" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="6" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="7" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="8" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="9" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13143,281 +13189,281 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="93" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="16" customWidth="1"/>
-    <col min="5" max="17" width="9.140625" style="15" customWidth="1"/>
-    <col min="18" max="254" width="9.140625" style="16" customWidth="1"/>
-    <col min="255" max="255" width="22.5703125" style="16" customWidth="1"/>
-    <col min="256" max="1025" width="24.140625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="93" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="5" max="17" width="9.140625" style="1" customWidth="1"/>
+    <col min="18" max="254" width="9.140625" style="2" customWidth="1"/>
+    <col min="255" max="255" width="22.5703125" style="2" customWidth="1"/>
+    <col min="256" max="1025" width="24.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="31" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
     </row>
     <row r="6" spans="2:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="31" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="31" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="B9" s="65"/>
+      <c r="C9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="31" t="s">
+      <c r="B10" s="65"/>
+      <c r="C10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="31" t="s">
+      <c r="B11" s="65"/>
+      <c r="C11" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="2:4" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="31" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="31" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="31" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="31" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="31" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="31" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="31" t="s">
+      <c r="B20" s="63"/>
+      <c r="C20" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="31" t="s">
+      <c r="B23" s="63"/>
+      <c r="C23" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="31" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="31" t="s">
+      <c r="B27" s="63"/>
+      <c r="C27" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="31" t="s">
+      <c r="B28" s="63"/>
+      <c r="C28" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:4" s="15" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
+    <row r="29" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:4" s="1" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="64"/>
+      <c r="D33" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="33" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="34" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B22:B24"/>
@@ -13430,222 +13476,222 @@
     <mergeCell ref="B13:B20"/>
   </mergeCells>
   <conditionalFormatting sqref="D4 D6:D11 D13 D18">
-    <cfRule type="cellIs" dxfId="132" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4 D6:D11 D13 D18">
-    <cfRule type="cellIs" dxfId="131" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="3" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4 D6:D11 D13 D18">
-    <cfRule type="cellIs" dxfId="130" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="4" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="129" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="128" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="6" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="127" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="7" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="126" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="125" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="9" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="124" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="10" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="123" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="11" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="122" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="12" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="121" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="13" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="120" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="14" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="119" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="15" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="118" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="16" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="117" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="17" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="116" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="18" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="115" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="19" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="114" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="20" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="113" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="21" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="112" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="22" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="111" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="23" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="110" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="24" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="109" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="25" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="108" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="26" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="107" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="27" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="106" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="28" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="105" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="29" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="104" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="30" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="103" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="31" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="102" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="32" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="101" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="33" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="100" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="34" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="99" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="35" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="98" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="36" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="97" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="37" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="96" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="38" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="95" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="39" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="94" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="40" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="93" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="41" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="92" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="42" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="91" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="90" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="89" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13673,145 +13719,145 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="20" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="87.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="34" customWidth="1"/>
-    <col min="6" max="19" width="9.140625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="20" customWidth="1"/>
+    <col min="6" max="19" width="9.140625" style="20" customWidth="1"/>
     <col min="20" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
+      <c r="B4" s="67"/>
       <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="36" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="36" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="36" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="36" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="36" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="36" t="s">
+      <c r="B13" s="72"/>
+      <c r="C13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="38"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="36" t="s">
+      <c r="B16" s="67"/>
+      <c r="C16" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>24</v>
       </c>
     </row>
@@ -13821,293 +13867,293 @@
       <c r="D17" s="68"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="36" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="38"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="40"/>
-      <c r="D20" s="41"/>
+      <c r="B20" s="26"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="36" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="36" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="43"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="44"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="43"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="44"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="43"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="44"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B27" s="69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="69"/>
-      <c r="D27" s="45" t="s">
-        <v>74</v>
+      <c r="D27" s="31" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="88" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"Concluído"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="87" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="86" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="85" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="84" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="83" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="82" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="81" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="80" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D22">
-    <cfRule type="cellIs" dxfId="79" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
       <formula>"Concluído"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D22">
-    <cfRule type="cellIs" dxfId="78" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D22">
-    <cfRule type="cellIs" dxfId="77" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D22">
-    <cfRule type="cellIs" dxfId="76" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D22">
-    <cfRule type="cellIs" dxfId="75" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D22">
-    <cfRule type="cellIs" dxfId="74" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D22">
-    <cfRule type="cellIs" dxfId="73" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D22">
-    <cfRule type="cellIs" dxfId="72" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D22">
-    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6 D8:D13 D15:D16 D18:D19">
-    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>"Concluído"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6 D8:D13 D15:D16 D18:D19">
-    <cfRule type="cellIs" dxfId="69" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6 D8:D13 D15:D16 D18:D19">
-    <cfRule type="cellIs" dxfId="68" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="67" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="66" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6 D15:D16">
-    <cfRule type="cellIs" dxfId="65" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6 D15:D16">
-    <cfRule type="cellIs" dxfId="64" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6 D15:D16">
-    <cfRule type="cellIs" dxfId="63" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D13">
-    <cfRule type="cellIs" dxfId="62" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D13">
-    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D13">
-    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="30" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="cellIs" dxfId="59" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="31" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="cellIs" dxfId="58" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="32" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="cellIs" dxfId="57" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="33" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D13">
-    <cfRule type="cellIs" dxfId="56" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="34" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D13">
-    <cfRule type="cellIs" dxfId="55" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="35" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D13">
-    <cfRule type="cellIs" dxfId="54" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="36" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="cellIs" dxfId="53" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="37" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="cellIs" dxfId="52" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="38" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="cellIs" dxfId="51" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="39" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14139,10 +14185,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="70.42578125" style="34" customWidth="1"/>
-    <col min="4" max="1025" width="9.140625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" style="20" customWidth="1"/>
+    <col min="4" max="1025" width="9.140625" style="20" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -14164,375 +14210,375 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="16" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="6" style="16" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="21" style="15" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="15" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="100.5703125" style="15" customWidth="1"/>
-    <col min="13" max="19" width="9.140625" style="15" customWidth="1"/>
-    <col min="20" max="256" width="9.140625" style="16" customWidth="1"/>
-    <col min="257" max="257" width="22.5703125" style="16" customWidth="1"/>
-    <col min="258" max="1025" width="24.140625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="100.5703125" style="1" customWidth="1"/>
+    <col min="13" max="19" width="9.140625" style="1" customWidth="1"/>
+    <col min="20" max="256" width="9.140625" style="2" customWidth="1"/>
+    <col min="257" max="257" width="22.5703125" style="2" customWidth="1"/>
+    <col min="258" max="1025" width="24.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="34"/>
+    <row r="1" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="20"/>
     </row>
-    <row r="2" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="34"/>
+    <row r="2" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="20"/>
     </row>
-    <row r="3" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="s">
+    <row r="3" spans="2:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="I3" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="I3" s="71" t="s">
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+    </row>
+    <row r="4" spans="2:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
+      <c r="C4" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
     </row>
-    <row r="4" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="48" t="s">
+    <row r="5" spans="2:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-    </row>
-    <row r="5" spans="2:12" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="72" t="s">
+      <c r="C5" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="50">
+      <c r="D5" s="36">
         <v>0</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="36">
         <v>2</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="37">
         <f>IF(E5&gt;D5,0,1)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="73">
+      <c r="G5" s="77">
         <v>43375</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
     </row>
-    <row r="6" spans="2:12" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="72"/>
-      <c r="C6" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="53">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="76"/>
+      <c r="C6" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="39">
         <v>0</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="39">
         <v>0</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="40">
         <f>IF(E6&gt;D6,0,1)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="73"/>
+      <c r="G6" s="77"/>
     </row>
-    <row r="7" spans="2:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="72"/>
-      <c r="C7" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="53">
+    <row r="7" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="76"/>
+      <c r="C7" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="39">
         <v>33</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="39">
         <v>33</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="40">
         <f>IF(E7&gt;D7,0,1)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="I7" s="74" t="s">
+      <c r="G7" s="77"/>
+      <c r="I7" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+    </row>
+    <row r="8" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="76"/>
+      <c r="C8" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-    </row>
-    <row r="8" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="72"/>
-      <c r="C8" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="55">
+      <c r="D8" s="41">
         <v>0.2</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="41">
         <v>0.1</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="40">
         <f>IF(E8&lt;D8,0,1)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
+      <c r="G8" s="77"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
     </row>
-    <row r="9" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="72"/>
-      <c r="C9" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="55">
+    <row r="9" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="76"/>
+      <c r="C9" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="41">
         <v>0.02</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="41">
         <v>0.02</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="40">
         <f>IF(E9&gt;D9,0,1)</f>
         <v>1</v>
       </c>
-      <c r="G9" s="73"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
+      <c r="G9" s="77"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
     </row>
-    <row r="10" spans="2:12" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="75"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="76"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="79"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="80"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
     </row>
-    <row r="11" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="75"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="76"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
+    <row r="11" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="79"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="80"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
     </row>
-    <row r="12" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="75"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="76"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
+    <row r="12" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="79"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="80"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
     </row>
-    <row r="13" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="76"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
+    <row r="13" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="79"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="80"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
     </row>
-    <row r="14" spans="2:12" s="15" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="75"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="76"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
+    <row r="14" spans="2:12" s="1" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="79"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="80"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
     </row>
-    <row r="15" spans="2:12" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="70" t="s">
+    <row r="15" spans="2:12" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+    </row>
+    <row r="16" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+    </row>
+    <row r="17" spans="2:12" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-    </row>
-    <row r="16" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-    </row>
-    <row r="17" spans="2:12" s="15" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="77" t="s">
+      <c r="C17" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="53">
+      <c r="D17" s="39">
         <v>0</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="39">
         <v>2</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="39">
         <f>IF(E17&gt;D17,0,1)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="78">
+      <c r="G17" s="82">
         <v>43375</v>
       </c>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
     </row>
-    <row r="18" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="77"/>
-      <c r="C18" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="65">
+    <row r="18" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="81"/>
+      <c r="C18" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="51">
         <v>0</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="51">
         <v>0</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="51">
         <f>IF(E18&gt;D18,0,1)</f>
         <v>1</v>
       </c>
-      <c r="G18" s="78"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
+      <c r="G18" s="82"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
     </row>
-    <row r="19" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="58"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
+    <row r="19" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="44"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
     </row>
-    <row r="20" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B3:G3"/>
@@ -14547,32 +14593,32 @@
     <mergeCell ref="G17:G18"/>
   </mergeCells>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="47" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"Aguardando Teste"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14638,14 +14684,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="53" t="s">
         <v>117</v>
-      </c>
-      <c r="E2" s="67" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -14656,29 +14702,29 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -14686,28 +14732,28 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
         <v>125</v>
-      </c>
-      <c r="E7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" t="s">
         <v>127</v>
-      </c>
-      <c r="E8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
